--- a/biology/Médecine/Géry_Van_Grevelynghe/Géry_Van_Grevelynghe.xlsx
+++ b/biology/Médecine/Géry_Van_Grevelynghe/Géry_Van_Grevelynghe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ry_Van_Grevelynghe</t>
+          <t>Géry_Van_Grevelynghe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Géry Van Grevelynghe, né en 1966, est un médecin originaire de Calais[1]. Il découvre l'ile de La Réunion en 1992, alors qu'il fait un stage aux urgences hospitalières de Saint-Paul ; il s'y trouve confronté à un enfant de 13 ans victime d'un squale. Cet accident le conduit[réf. nécessaire] à soutenir sa thèse sur le thème Les requins à La Réunion : mythes et réalités., Étude de 12 cas d’accidents liés aux requins à l'Université de Lille en 1994. Il s'implante dans l'ile et officialise[réf. nécessaire] au cours de son travail la présence du requin bouledogue (Carcharhinus leucas) dans les eaux insulaires. 
-Il est spécialiste des requins[2], auteur de plusieurs publications à leur sujet et régulièrement consulté par les médias[3], notamment après des attaques de requins. Il est aussi cofondateur d'une association de protection et d'observation des requins, Squal'idées[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Géry Van Grevelynghe, né en 1966, est un médecin originaire de Calais. Il découvre l'ile de La Réunion en 1992, alors qu'il fait un stage aux urgences hospitalières de Saint-Paul ; il s'y trouve confronté à un enfant de 13 ans victime d'un squale. Cet accident le conduit[réf. nécessaire] à soutenir sa thèse sur le thème Les requins à La Réunion : mythes et réalités., Étude de 12 cas d’accidents liés aux requins à l'Université de Lille en 1994. Il s'implante dans l'ile et officialise[réf. nécessaire] au cours de son travail la présence du requin bouledogue (Carcharhinus leucas) dans les eaux insulaires. 
+Il est spécialiste des requins, auteur de plusieurs publications à leur sujet et régulièrement consulté par les médias, notamment après des attaques de requins. Il est aussi cofondateur d'une association de protection et d'observation des requins, Squal'idées.
 </t>
         </is>
       </c>
